--- a/data/pca/factorExposure/factorExposure_2009-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004044567655122499</v>
+        <v>0.01682756292067928</v>
       </c>
       <c r="C2">
-        <v>0.01121345764631976</v>
+        <v>0.001010171621237854</v>
       </c>
       <c r="D2">
-        <v>0.002289426558664204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007334469952716635</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001549198131123938</v>
+      </c>
+      <c r="F2">
+        <v>-0.01126404342529305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03139068792985682</v>
+        <v>0.0934258384926326</v>
       </c>
       <c r="C4">
-        <v>0.1166458384414455</v>
+        <v>0.01504253026239605</v>
       </c>
       <c r="D4">
-        <v>-0.02803077683028224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08451021666682663</v>
+      </c>
+      <c r="E4">
+        <v>-0.02826824264199587</v>
+      </c>
+      <c r="F4">
+        <v>0.03067914653069168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04059823045026023</v>
+        <v>0.157712336626472</v>
       </c>
       <c r="C6">
-        <v>0.1197179482744214</v>
+        <v>0.02526052774860114</v>
       </c>
       <c r="D6">
-        <v>0.03833093775209673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02111312884970463</v>
+      </c>
+      <c r="E6">
+        <v>-0.01063614953829428</v>
+      </c>
+      <c r="F6">
+        <v>0.04535121388151904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01212906017109494</v>
+        <v>0.06260987393603731</v>
       </c>
       <c r="C7">
-        <v>0.08617044110189587</v>
+        <v>-0.001807918918019385</v>
       </c>
       <c r="D7">
-        <v>0.006288289516554595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05348317722645825</v>
+      </c>
+      <c r="E7">
+        <v>-0.01006334562566119</v>
+      </c>
+      <c r="F7">
+        <v>0.04781582629859401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0006953952744815186</v>
+        <v>0.05682527799455505</v>
       </c>
       <c r="C8">
-        <v>0.0718394966831078</v>
+        <v>-0.01391389331680548</v>
       </c>
       <c r="D8">
-        <v>0.02439744521293938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03487950410231017</v>
+      </c>
+      <c r="E8">
+        <v>-0.0180755242123128</v>
+      </c>
+      <c r="F8">
+        <v>-0.02791016963176633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02618208060658376</v>
+        <v>0.07094208648174338</v>
       </c>
       <c r="C9">
-        <v>0.09730290510515006</v>
+        <v>0.01067805641994937</v>
       </c>
       <c r="D9">
-        <v>-0.03036902903129868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08685954416446755</v>
+      </c>
+      <c r="E9">
+        <v>-0.02308042994712717</v>
+      </c>
+      <c r="F9">
+        <v>0.04754594326450825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01290777152485031</v>
+        <v>0.096084180411109</v>
       </c>
       <c r="C10">
-        <v>0.02773876715879605</v>
+        <v>0.02104363420797601</v>
       </c>
       <c r="D10">
-        <v>0.1213916964839062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1718646989101072</v>
+      </c>
+      <c r="E10">
+        <v>0.03640565808903713</v>
+      </c>
+      <c r="F10">
+        <v>-0.05431284301590412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0310712803104205</v>
+        <v>0.08766318862532291</v>
       </c>
       <c r="C11">
-        <v>0.1004468227048593</v>
+        <v>0.01021517773084705</v>
       </c>
       <c r="D11">
-        <v>-0.0362250326257291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1159757090730996</v>
+      </c>
+      <c r="E11">
+        <v>-0.045608302549301</v>
+      </c>
+      <c r="F11">
+        <v>0.02219342903974588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02881260212597232</v>
+        <v>0.09205462245406414</v>
       </c>
       <c r="C12">
-        <v>0.1118150563927239</v>
+        <v>0.007410391887504014</v>
       </c>
       <c r="D12">
-        <v>-0.03211600685144137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1314935526385019</v>
+      </c>
+      <c r="E12">
+        <v>-0.04721672991066882</v>
+      </c>
+      <c r="F12">
+        <v>0.02671690715304602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01007631117142349</v>
+        <v>0.04163570764671197</v>
       </c>
       <c r="C13">
-        <v>0.04100845334372041</v>
+        <v>0.002903959687936502</v>
       </c>
       <c r="D13">
-        <v>-0.02246782702898503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05201263784744216</v>
+      </c>
+      <c r="E13">
+        <v>0.008695520025713407</v>
+      </c>
+      <c r="F13">
+        <v>0.003371374951365559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01627579734919756</v>
+        <v>0.02265368624344888</v>
       </c>
       <c r="C14">
-        <v>0.0228093604814681</v>
+        <v>0.01366187404245277</v>
       </c>
       <c r="D14">
-        <v>0.004877942247582259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03322775489620534</v>
+      </c>
+      <c r="E14">
+        <v>-0.01742603491852405</v>
+      </c>
+      <c r="F14">
+        <v>0.01388233821526982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01093021199261172</v>
+        <v>0.03279958058841569</v>
       </c>
       <c r="C15">
-        <v>0.02822869790405558</v>
+        <v>0.004678204168715712</v>
       </c>
       <c r="D15">
-        <v>-0.007555833988631063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04528120950808228</v>
+      </c>
+      <c r="E15">
+        <v>-0.006118337039008102</v>
+      </c>
+      <c r="F15">
+        <v>0.02273366555311228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02061776113344659</v>
+        <v>0.07397628634266094</v>
       </c>
       <c r="C16">
-        <v>0.1026612049530908</v>
+        <v>0.001355926659035534</v>
       </c>
       <c r="D16">
-        <v>-0.02316859959830297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1253120525962662</v>
+      </c>
+      <c r="E16">
+        <v>-0.06147416652377646</v>
+      </c>
+      <c r="F16">
+        <v>0.02505575677941839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03173385028523891</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003490832971718146</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01975863051798291</v>
+      </c>
+      <c r="E18">
+        <v>0.007248046587038544</v>
+      </c>
+      <c r="F18">
+        <v>-0.003432915299768442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01315782419004006</v>
+        <v>0.06109672411225105</v>
       </c>
       <c r="C20">
-        <v>0.06238702759535109</v>
+        <v>1.342674877045724e-05</v>
       </c>
       <c r="D20">
-        <v>0.003645563242131297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07724781828518165</v>
+      </c>
+      <c r="E20">
+        <v>-0.05551884012281268</v>
+      </c>
+      <c r="F20">
+        <v>0.02334030068432603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01380215688922028</v>
+        <v>0.0402130703739287</v>
       </c>
       <c r="C21">
-        <v>0.02535359261654624</v>
+        <v>0.006240943468753286</v>
       </c>
       <c r="D21">
-        <v>-0.0002088619886311087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0377828582624033</v>
+      </c>
+      <c r="E21">
+        <v>0.005294429647061783</v>
+      </c>
+      <c r="F21">
+        <v>-0.02347805054519595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005786004814445416</v>
+        <v>0.0438267441089038</v>
       </c>
       <c r="C22">
-        <v>0.03122011634402594</v>
+        <v>0.0006831289934999519</v>
       </c>
       <c r="D22">
-        <v>0.03682347972029534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003808729321226718</v>
+      </c>
+      <c r="E22">
+        <v>-0.03000432582816043</v>
+      </c>
+      <c r="F22">
+        <v>-0.0356215861288547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.00577303882555976</v>
+        <v>0.04381233959100642</v>
       </c>
       <c r="C23">
-        <v>0.03115763632947593</v>
+        <v>0.0006788247190303671</v>
       </c>
       <c r="D23">
-        <v>0.03690720446685672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003813444928523915</v>
+      </c>
+      <c r="E23">
+        <v>-0.03020578339540103</v>
+      </c>
+      <c r="F23">
+        <v>-0.03558409487264295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02032527201483663</v>
+        <v>0.08008943489248402</v>
       </c>
       <c r="C24">
-        <v>0.1065716037429926</v>
+        <v>0.00182512082646406</v>
       </c>
       <c r="D24">
-        <v>-0.03014450466395592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1204984027685802</v>
+      </c>
+      <c r="E24">
+        <v>-0.04877374926203824</v>
+      </c>
+      <c r="F24">
+        <v>0.026630416710708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02618051879153982</v>
+        <v>0.08503635971843056</v>
       </c>
       <c r="C25">
-        <v>0.1061382270849595</v>
+        <v>0.004101052200188518</v>
       </c>
       <c r="D25">
-        <v>-0.02941039329111753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1090482773893277</v>
+      </c>
+      <c r="E25">
+        <v>-0.03230137005877338</v>
+      </c>
+      <c r="F25">
+        <v>0.02711622423811067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02523485867879245</v>
+        <v>0.05817259179692586</v>
       </c>
       <c r="C26">
-        <v>0.05080664089629078</v>
+        <v>0.0143155967531841</v>
       </c>
       <c r="D26">
-        <v>0.0169032785795636</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04021432280241077</v>
+      </c>
+      <c r="E26">
+        <v>-0.02829104536311728</v>
+      </c>
+      <c r="F26">
+        <v>-0.008826420788249866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.008450759317536543</v>
+        <v>0.1406580594550314</v>
       </c>
       <c r="C28">
-        <v>0.0458868985651598</v>
+        <v>0.02036706962126781</v>
       </c>
       <c r="D28">
-        <v>0.1948627850501595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2611488774901808</v>
+      </c>
+      <c r="E28">
+        <v>0.06686472984671676</v>
+      </c>
+      <c r="F28">
+        <v>0.009822261662061869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0130468896500645</v>
+        <v>0.0277212629030155</v>
       </c>
       <c r="C29">
-        <v>0.02718034612590307</v>
+        <v>0.00807631423726381</v>
       </c>
       <c r="D29">
-        <v>0.00495432742819416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03191076705074639</v>
+      </c>
+      <c r="E29">
+        <v>-0.01138272865619497</v>
+      </c>
+      <c r="F29">
+        <v>-0.01070774851308912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01705481672357672</v>
+        <v>0.06104039183260168</v>
       </c>
       <c r="C30">
-        <v>0.1275796316828823</v>
+        <v>0.00300515327648591</v>
       </c>
       <c r="D30">
-        <v>-0.02297037881423794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.089474036044738</v>
+      </c>
+      <c r="E30">
+        <v>-0.01939964570177435</v>
+      </c>
+      <c r="F30">
+        <v>0.08377788124051209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02196845446196352</v>
+        <v>0.04981053258568865</v>
       </c>
       <c r="C31">
-        <v>0.03484299621620127</v>
+        <v>0.01504014755009289</v>
       </c>
       <c r="D31">
-        <v>0.001622996065172682</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02523852599458894</v>
+      </c>
+      <c r="E31">
+        <v>-0.02750936224303417</v>
+      </c>
+      <c r="F31">
+        <v>-0.002451958059161809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008862249152771957</v>
+        <v>0.05018556864994429</v>
       </c>
       <c r="C32">
-        <v>0.05719719834925271</v>
+        <v>-0.001754840376399592</v>
       </c>
       <c r="D32">
-        <v>0.02482513360310326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03602920583809744</v>
+      </c>
+      <c r="E32">
+        <v>-0.03073507960976874</v>
+      </c>
+      <c r="F32">
+        <v>0.003283586273651972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02313297528780268</v>
+        <v>0.08910790142779665</v>
       </c>
       <c r="C33">
-        <v>0.1074069748779198</v>
+        <v>0.007389043173666556</v>
       </c>
       <c r="D33">
-        <v>-0.02515518714932374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09945620143368326</v>
+      </c>
+      <c r="E33">
+        <v>-0.0437659083201058</v>
+      </c>
+      <c r="F33">
+        <v>0.03596115869961241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02868407743032968</v>
+        <v>0.06803846288205183</v>
       </c>
       <c r="C34">
-        <v>0.09328143404740667</v>
+        <v>0.01035681522767296</v>
       </c>
       <c r="D34">
-        <v>-0.01855429465899948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1070113223256843</v>
+      </c>
+      <c r="E34">
+        <v>-0.03437150667286513</v>
+      </c>
+      <c r="F34">
+        <v>0.03417685377925302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.00378334901281169</v>
+        <v>0.02427618810283944</v>
       </c>
       <c r="C35">
-        <v>0.01346060530702383</v>
+        <v>0.002356126637302783</v>
       </c>
       <c r="D35">
-        <v>0.0001436396229518311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01170381274450314</v>
+      </c>
+      <c r="E35">
+        <v>-0.01164723408593905</v>
+      </c>
+      <c r="F35">
+        <v>0.0008246642531587767</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01119970865942929</v>
+        <v>0.02793688563576176</v>
       </c>
       <c r="C36">
-        <v>0.02319991331553797</v>
+        <v>0.00699713713252287</v>
       </c>
       <c r="D36">
-        <v>-0.008765892550252626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03930336366007921</v>
+      </c>
+      <c r="E36">
+        <v>-0.01633059289550429</v>
+      </c>
+      <c r="F36">
+        <v>0.01517158447796731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002836541483991382</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-6.079693969660049e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0004024228448842381</v>
+      </c>
+      <c r="E37">
+        <v>0.0004450836886165651</v>
+      </c>
+      <c r="F37">
+        <v>0.0006860855700386012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006612477754506373</v>
+        <v>0.001544908576662524</v>
       </c>
       <c r="C38">
-        <v>0.004309679159924282</v>
+        <v>0.0002574504292347292</v>
       </c>
       <c r="D38">
-        <v>0.00275271737359426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0002147006401334289</v>
+      </c>
+      <c r="E38">
+        <v>-0.0004775236981434386</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008758851069130232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04427109687411931</v>
+        <v>0.10522867654878</v>
       </c>
       <c r="C39">
-        <v>0.1603180520116252</v>
+        <v>0.01533591714712614</v>
       </c>
       <c r="D39">
-        <v>-0.04778962230891829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1540492104051297</v>
+      </c>
+      <c r="E39">
+        <v>-0.05892181315279507</v>
+      </c>
+      <c r="F39">
+        <v>0.02921644069065127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01145946188709539</v>
+        <v>0.04097975612799336</v>
       </c>
       <c r="C40">
-        <v>0.0121452297375645</v>
+        <v>0.006642206907898213</v>
       </c>
       <c r="D40">
-        <v>0.01001556194874709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03277554578111994</v>
+      </c>
+      <c r="E40">
+        <v>-0.003540078933450328</v>
+      </c>
+      <c r="F40">
+        <v>-0.01530704516602226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01162168902278892</v>
+        <v>0.02788760520910566</v>
       </c>
       <c r="C41">
-        <v>0.01845440251889031</v>
+        <v>0.006707939198082838</v>
       </c>
       <c r="D41">
-        <v>0.01524043097174245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01023616111845991</v>
+      </c>
+      <c r="E41">
+        <v>-0.01221877585315673</v>
+      </c>
+      <c r="F41">
+        <v>-0.006489142715826937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01353413622387587</v>
+        <v>0.04087076709987152</v>
       </c>
       <c r="C43">
-        <v>0.02745722817256772</v>
+        <v>0.006764271688268345</v>
       </c>
       <c r="D43">
-        <v>0.0100846579004753</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01941636168247333</v>
+      </c>
+      <c r="E43">
+        <v>-0.02430853567366395</v>
+      </c>
+      <c r="F43">
+        <v>-0.01266361964223793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03352182545586849</v>
+        <v>0.07993270734571832</v>
       </c>
       <c r="C44">
-        <v>0.1257136095482713</v>
+        <v>0.01962049419012083</v>
       </c>
       <c r="D44">
-        <v>-0.00185909251901977</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09736933403447968</v>
+      </c>
+      <c r="E44">
+        <v>-0.06445739916466027</v>
+      </c>
+      <c r="F44">
+        <v>0.1567276963267878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005635708464603506</v>
+        <v>0.02339808723686302</v>
       </c>
       <c r="C46">
-        <v>0.007224674617625978</v>
+        <v>0.003463525866462606</v>
       </c>
       <c r="D46">
-        <v>0.02022957753438388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01307003223091094</v>
+      </c>
+      <c r="E46">
+        <v>-0.02225753958561173</v>
+      </c>
+      <c r="F46">
+        <v>-0.005052643791987547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.011383673855366</v>
+        <v>0.05122698191549405</v>
       </c>
       <c r="C47">
-        <v>0.03411307048640959</v>
+        <v>0.003276434791966184</v>
       </c>
       <c r="D47">
-        <v>0.02659510526556418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01410099096057679</v>
+      </c>
+      <c r="E47">
+        <v>-0.02347755529539578</v>
+      </c>
+      <c r="F47">
+        <v>-0.03355555397169181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01275632168484481</v>
+        <v>0.05000782956413262</v>
       </c>
       <c r="C48">
-        <v>0.04789024234045574</v>
+        <v>0.002188044254913841</v>
       </c>
       <c r="D48">
-        <v>-0.01793160389893534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05004089495696015</v>
+      </c>
+      <c r="E48">
+        <v>0.00611032078133364</v>
+      </c>
+      <c r="F48">
+        <v>0.00988693530292231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04170991458972445</v>
+        <v>0.1999179090330777</v>
       </c>
       <c r="C49">
-        <v>0.2194728664920649</v>
+        <v>0.01852489449877091</v>
       </c>
       <c r="D49">
-        <v>0.05951209016404761</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007711861662567992</v>
+      </c>
+      <c r="E49">
+        <v>-0.03058684613328376</v>
+      </c>
+      <c r="F49">
+        <v>0.03964617454112999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01890982741046093</v>
+        <v>0.05071632916537411</v>
       </c>
       <c r="C50">
-        <v>0.03909748056099557</v>
+        <v>0.01109858715905828</v>
       </c>
       <c r="D50">
-        <v>0.0068662424146162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0236588298425543</v>
+      </c>
+      <c r="E50">
+        <v>-0.02930774723222917</v>
+      </c>
+      <c r="F50">
+        <v>0.009075844256421729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0001559400257947362</v>
+        <v>0.0003105380128460316</v>
       </c>
       <c r="C51">
-        <v>0.0005397570961137413</v>
+        <v>9.053869171832224e-05</v>
       </c>
       <c r="D51">
-        <v>0.001199977648463315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0005996616282027558</v>
+      </c>
+      <c r="E51">
+        <v>0.0005798769900158916</v>
+      </c>
+      <c r="F51">
+        <v>0.002438205712642382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0335574438721471</v>
+        <v>0.1462637284204521</v>
       </c>
       <c r="C52">
-        <v>0.1526145605405608</v>
+        <v>0.01533265527532815</v>
       </c>
       <c r="D52">
-        <v>-0.02047443546564926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0451128907502835</v>
+      </c>
+      <c r="E52">
+        <v>-0.02031251655666001</v>
+      </c>
+      <c r="F52">
+        <v>0.04075301504969219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03481071711750906</v>
+        <v>0.1721739355483384</v>
       </c>
       <c r="C53">
-        <v>0.174552459502853</v>
+        <v>0.01854400628036294</v>
       </c>
       <c r="D53">
-        <v>0.01131024083766805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006255131088684552</v>
+      </c>
+      <c r="E53">
+        <v>-0.03118813835537991</v>
+      </c>
+      <c r="F53">
+        <v>0.07196129540162809</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0163733089225959</v>
+        <v>0.02270371081347073</v>
       </c>
       <c r="C54">
-        <v>0.03704609909635226</v>
+        <v>0.01241606509331687</v>
       </c>
       <c r="D54">
-        <v>0.002481091321878411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03353298666146251</v>
+      </c>
+      <c r="E54">
+        <v>-0.01820742066243402</v>
+      </c>
+      <c r="F54">
+        <v>-0.002944821863493478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02653271175806982</v>
+        <v>0.1140132416781768</v>
       </c>
       <c r="C55">
-        <v>0.09043025107026546</v>
+        <v>0.01623918458035754</v>
       </c>
       <c r="D55">
-        <v>0.002222895672537839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009727868370498731</v>
+      </c>
+      <c r="E55">
+        <v>-0.02783293439249202</v>
+      </c>
+      <c r="F55">
+        <v>0.04641104341769887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03561364043589674</v>
+        <v>0.1768577389485194</v>
       </c>
       <c r="C56">
-        <v>0.1613605377590121</v>
+        <v>0.01602533783855802</v>
       </c>
       <c r="D56">
-        <v>0.0200581123688837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001211463158096011</v>
+      </c>
+      <c r="E56">
+        <v>-0.03542108934040315</v>
+      </c>
+      <c r="F56">
+        <v>0.05032159330551649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01308260317933093</v>
+        <v>0.04591849383561705</v>
       </c>
       <c r="C58">
-        <v>0.0498636134149857</v>
+        <v>0.0003592558553468758</v>
       </c>
       <c r="D58">
-        <v>-0.01213315150940882</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06765758721466106</v>
+      </c>
+      <c r="E58">
+        <v>-0.02741483769745835</v>
+      </c>
+      <c r="F58">
+        <v>-0.03590333024200742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01767327940806539</v>
+        <v>0.1682710230137059</v>
       </c>
       <c r="C59">
-        <v>0.1049013242441542</v>
+        <v>0.02099450703356207</v>
       </c>
       <c r="D59">
-        <v>0.2060249767862712</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2178010093296882</v>
+      </c>
+      <c r="E59">
+        <v>0.04541773714185038</v>
+      </c>
+      <c r="F59">
+        <v>-0.03417144508928437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03231313833465369</v>
+        <v>0.2312443787968607</v>
       </c>
       <c r="C60">
-        <v>0.2768117057872427</v>
+        <v>-0.003132256690857622</v>
       </c>
       <c r="D60">
-        <v>-0.005367269188994678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0422289925087413</v>
+      </c>
+      <c r="E60">
+        <v>-0.01089804137759799</v>
+      </c>
+      <c r="F60">
+        <v>-0.006881088673562557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03152851997447659</v>
+        <v>0.08189978142469834</v>
       </c>
       <c r="C61">
-        <v>0.1202076338594904</v>
+        <v>0.01141211006466137</v>
       </c>
       <c r="D61">
-        <v>-0.01834884938332232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1160636950454399</v>
+      </c>
+      <c r="E61">
+        <v>-0.0380432967174697</v>
+      </c>
+      <c r="F61">
+        <v>0.01204610379148059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03765374897760065</v>
+        <v>0.1706328919215815</v>
       </c>
       <c r="C62">
-        <v>0.1648276387770961</v>
+        <v>0.01945284430750959</v>
       </c>
       <c r="D62">
-        <v>0.01590194296372021</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00674789513537409</v>
+      </c>
+      <c r="E62">
+        <v>-0.03498154840824524</v>
+      </c>
+      <c r="F62">
+        <v>0.0328678391892907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01221956329309496</v>
+        <v>0.04565179568215123</v>
       </c>
       <c r="C63">
-        <v>0.04998339237954809</v>
+        <v>0.001750326396339267</v>
       </c>
       <c r="D63">
-        <v>-0.014740613373682</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05862260466315544</v>
+      </c>
+      <c r="E63">
+        <v>-0.0216065631362919</v>
+      </c>
+      <c r="F63">
+        <v>0.006027054434766585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02545977152875988</v>
+        <v>0.110646592438052</v>
       </c>
       <c r="C64">
-        <v>0.09583331266922357</v>
+        <v>0.01090870065066938</v>
       </c>
       <c r="D64">
-        <v>0.009208143464347481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04297225964007484</v>
+      </c>
+      <c r="E64">
+        <v>-0.02417043592498883</v>
+      </c>
+      <c r="F64">
+        <v>0.02563229126610294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04167410001310896</v>
+        <v>0.1477605549923323</v>
       </c>
       <c r="C65">
-        <v>0.1115521247622415</v>
+        <v>0.03253034974449522</v>
       </c>
       <c r="D65">
-        <v>0.02815172495009278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04030192572690765</v>
+      </c>
+      <c r="E65">
+        <v>-0.004518338715199282</v>
+      </c>
+      <c r="F65">
+        <v>0.03876461022430933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04235361390038535</v>
+        <v>0.1247291161510939</v>
       </c>
       <c r="C66">
-        <v>0.1862902525782203</v>
+        <v>0.01339311437087928</v>
       </c>
       <c r="D66">
-        <v>-0.04890610880965765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1425932770767211</v>
+      </c>
+      <c r="E66">
+        <v>-0.06627301701044401</v>
+      </c>
+      <c r="F66">
+        <v>0.03149573685693334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01501741946936054</v>
+        <v>0.06081585489385943</v>
       </c>
       <c r="C67">
-        <v>0.07373102942286099</v>
+        <v>0.003056666596100261</v>
       </c>
       <c r="D67">
-        <v>-0.007949880168118562</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0552854887814251</v>
+      </c>
+      <c r="E67">
+        <v>-0.01732198879484761</v>
+      </c>
+      <c r="F67">
+        <v>-0.03404301279332431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01822676570430157</v>
+        <v>0.1171606409778891</v>
       </c>
       <c r="C68">
-        <v>0.03059612704249401</v>
+        <v>0.0315193466544068</v>
       </c>
       <c r="D68">
-        <v>0.1749166469381294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2613527120349676</v>
+      </c>
+      <c r="E68">
+        <v>0.08647414006323668</v>
+      </c>
+      <c r="F68">
+        <v>0.005010335303523122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.006568245707631906</v>
+        <v>0.0398182999626018</v>
       </c>
       <c r="C69">
-        <v>0.03596130026537894</v>
+        <v>0.001312217394084849</v>
       </c>
       <c r="D69">
-        <v>0.01111214975048024</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007210521572377727</v>
+      </c>
+      <c r="E69">
+        <v>-0.02281346369401386</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007729559498596548</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0002108782549624348</v>
+        <v>0.06582094019853872</v>
       </c>
       <c r="C70">
-        <v>0.03530791314230151</v>
+        <v>-0.02808821049863484</v>
       </c>
       <c r="D70">
-        <v>0.0008820261546662932</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02473720843363695</v>
+      </c>
+      <c r="E70">
+        <v>0.03958643691091863</v>
+      </c>
+      <c r="F70">
+        <v>-0.1858441085463466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02236361629119881</v>
+        <v>0.1369486890370832</v>
       </c>
       <c r="C71">
-        <v>0.04186044217235504</v>
+        <v>0.03587770673845194</v>
       </c>
       <c r="D71">
-        <v>0.1879623466814586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2734121108916446</v>
+      </c>
+      <c r="E71">
+        <v>0.09605629727116989</v>
+      </c>
+      <c r="F71">
+        <v>0.0117992705829123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03865548634009264</v>
+        <v>0.142078967813034</v>
       </c>
       <c r="C72">
-        <v>0.12510071178371</v>
+        <v>0.02584028253055186</v>
       </c>
       <c r="D72">
-        <v>0.03973079382068807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001333360200350242</v>
+      </c>
+      <c r="E72">
+        <v>-0.03801141991865808</v>
+      </c>
+      <c r="F72">
+        <v>0.03412101394482792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03691307919499576</v>
+        <v>0.2007969585393632</v>
       </c>
       <c r="C73">
-        <v>0.2114832435739344</v>
+        <v>0.01210723287199918</v>
       </c>
       <c r="D73">
-        <v>0.04689314906213146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01776182983486987</v>
+      </c>
+      <c r="E73">
+        <v>-0.06409853401332848</v>
+      </c>
+      <c r="F73">
+        <v>0.03877710662636407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0225865295295486</v>
+        <v>0.09467317672998019</v>
       </c>
       <c r="C74">
-        <v>0.111513341610827</v>
+        <v>0.0130099730603713</v>
       </c>
       <c r="D74">
-        <v>0.02804273707898161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01714070490602819</v>
+      </c>
+      <c r="E74">
+        <v>-0.04358676508585623</v>
+      </c>
+      <c r="F74">
+        <v>0.05588608258801776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04404732365225983</v>
+        <v>0.1282002124440978</v>
       </c>
       <c r="C75">
-        <v>0.1349406817430603</v>
+        <v>0.02747571534851356</v>
       </c>
       <c r="D75">
-        <v>0.02640537577972941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03044619829804137</v>
+      </c>
+      <c r="E75">
+        <v>-0.05802377044844526</v>
+      </c>
+      <c r="F75">
+        <v>0.0177790623020295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001391960737147343</v>
+        <v>0.0004114309635691857</v>
       </c>
       <c r="C76">
-        <v>0.001381632278561365</v>
+        <v>0.0001299480908439245</v>
       </c>
       <c r="D76">
-        <v>0.001743924419219419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.000661974818672883</v>
+      </c>
+      <c r="E76">
+        <v>0.0001579363198262619</v>
+      </c>
+      <c r="F76">
+        <v>0.0004680061168987216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02617138509778816</v>
+        <v>0.08631680885026183</v>
       </c>
       <c r="C77">
-        <v>0.1000370572699615</v>
+        <v>0.007901839082154119</v>
       </c>
       <c r="D77">
-        <v>-0.04436711997650511</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1132500192200647</v>
+      </c>
+      <c r="E77">
+        <v>-0.03872093472357828</v>
+      </c>
+      <c r="F77">
+        <v>0.03321802390481356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0561776190223686</v>
+        <v>0.09990704813794707</v>
       </c>
       <c r="C78">
-        <v>0.1391102679491102</v>
+        <v>0.03901516432290301</v>
       </c>
       <c r="D78">
-        <v>0.01151517760482498</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1168116651898388</v>
+      </c>
+      <c r="E78">
+        <v>-0.07405936527034276</v>
+      </c>
+      <c r="F78">
+        <v>0.04610930798962357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03868210182837667</v>
+        <v>0.16458012802289</v>
       </c>
       <c r="C79">
-        <v>0.1449403401491749</v>
+        <v>0.02210572955702177</v>
       </c>
       <c r="D79">
-        <v>0.02753737058546337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01520936827928515</v>
+      </c>
+      <c r="E79">
+        <v>-0.04610811362411012</v>
+      </c>
+      <c r="F79">
+        <v>0.01027831865702044</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01028509333216642</v>
+        <v>0.08263152819593268</v>
       </c>
       <c r="C80">
-        <v>0.08284318529143148</v>
+        <v>-0.001060972024464672</v>
       </c>
       <c r="D80">
-        <v>0.008444004791181212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05660199432139742</v>
+      </c>
+      <c r="E80">
+        <v>-0.03670329152111018</v>
+      </c>
+      <c r="F80">
+        <v>-0.02368594556952786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04586174056772158</v>
+        <v>0.1216405143157862</v>
       </c>
       <c r="C81">
-        <v>0.1349315277003713</v>
+        <v>0.03145266673564706</v>
       </c>
       <c r="D81">
-        <v>0.01164442164984261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01602959402868057</v>
+      </c>
+      <c r="E81">
+        <v>-0.05760811994540204</v>
+      </c>
+      <c r="F81">
+        <v>0.01563595894154903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04086799568463129</v>
+        <v>0.1663194503184357</v>
       </c>
       <c r="C82">
-        <v>0.1659382201390721</v>
+        <v>0.02390336766747905</v>
       </c>
       <c r="D82">
-        <v>0.01662910022474228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003999065966944297</v>
+      </c>
+      <c r="E82">
+        <v>-0.02786527457124947</v>
+      </c>
+      <c r="F82">
+        <v>0.07913857512955701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01807631501318997</v>
+        <v>0.06010460506174976</v>
       </c>
       <c r="C83">
-        <v>0.06771293769635468</v>
+        <v>0.002689072134962375</v>
       </c>
       <c r="D83">
-        <v>-0.008083167847982093</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05109678969923524</v>
+      </c>
+      <c r="E83">
+        <v>-0.005023968800881871</v>
+      </c>
+      <c r="F83">
+        <v>-0.03155042848067933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02717072520827511</v>
+        <v>0.05861973295994399</v>
       </c>
       <c r="C84">
-        <v>0.07947987751449259</v>
+        <v>0.01084509845697604</v>
       </c>
       <c r="D84">
-        <v>-0.03291051948913427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06421763530755172</v>
+      </c>
+      <c r="E84">
+        <v>-0.006669729185794717</v>
+      </c>
+      <c r="F84">
+        <v>0.003875419412183791</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03998842503865883</v>
+        <v>0.1364873000759929</v>
       </c>
       <c r="C85">
-        <v>0.1201091125804598</v>
+        <v>0.02737840524126751</v>
       </c>
       <c r="D85">
-        <v>0.01480959969786705</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01116196920177115</v>
+      </c>
+      <c r="E85">
+        <v>-0.03841697312667414</v>
+      </c>
+      <c r="F85">
+        <v>0.04434133640371083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01148608886678056</v>
+        <v>0.0936210274862409</v>
       </c>
       <c r="C86">
-        <v>0.08139242066379801</v>
+        <v>-0.006641285765748614</v>
       </c>
       <c r="D86">
-        <v>0.1698235599013037</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04264897632226877</v>
+      </c>
+      <c r="E86">
+        <v>-0.2145757837994265</v>
+      </c>
+      <c r="F86">
+        <v>-0.9078541325346655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04023948364794416</v>
+        <v>0.09691506718178222</v>
       </c>
       <c r="C87">
-        <v>0.1063373368412633</v>
+        <v>0.0193463294468054</v>
       </c>
       <c r="D87">
-        <v>-0.05699751916939647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09678372553477638</v>
+      </c>
+      <c r="E87">
+        <v>0.05054215698549788</v>
+      </c>
+      <c r="F87">
+        <v>0.05389248219440939</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01420459815734928</v>
+        <v>0.06063547734150387</v>
       </c>
       <c r="C88">
-        <v>0.06007559975144375</v>
+        <v>0.00202107654876565</v>
       </c>
       <c r="D88">
-        <v>-0.002539589049417643</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04957549006828082</v>
+      </c>
+      <c r="E88">
+        <v>-0.02441116940459725</v>
+      </c>
+      <c r="F88">
+        <v>0.01200432577121762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.003743774482440953</v>
+        <v>0.1339617496386231</v>
       </c>
       <c r="C89">
-        <v>0.05753319588789596</v>
+        <v>0.01324555635819427</v>
       </c>
       <c r="D89">
-        <v>0.2210177535142433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2504096863721005</v>
+      </c>
+      <c r="E89">
+        <v>0.09029403076926754</v>
+      </c>
+      <c r="F89">
+        <v>-0.008110201347556007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02106036672839508</v>
+        <v>0.1508035092250697</v>
       </c>
       <c r="C90">
-        <v>0.04573395737173253</v>
+        <v>0.03209062247591935</v>
       </c>
       <c r="D90">
-        <v>0.1975721892390508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2692785381325521</v>
+      </c>
+      <c r="E90">
+        <v>0.1118611558654109</v>
+      </c>
+      <c r="F90">
+        <v>-0.001645324826416165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02553062598292968</v>
+        <v>0.1204680138840101</v>
       </c>
       <c r="C91">
-        <v>0.1002613508680642</v>
+        <v>0.0186207272850791</v>
       </c>
       <c r="D91">
-        <v>0.01585429612773528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0127714816486211</v>
+      </c>
+      <c r="E91">
+        <v>-0.05617576399632809</v>
+      </c>
+      <c r="F91">
+        <v>-0.003323068259312134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.006852187247396768</v>
+        <v>0.1476839962065241</v>
       </c>
       <c r="C92">
-        <v>0.06155692251214125</v>
+        <v>0.02362195037490996</v>
       </c>
       <c r="D92">
-        <v>0.2148631197176605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914116651066399</v>
+      </c>
+      <c r="E92">
+        <v>0.1005941741463076</v>
+      </c>
+      <c r="F92">
+        <v>-0.01318213270023739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01906643949345035</v>
+        <v>0.1522366082032074</v>
       </c>
       <c r="C93">
-        <v>0.05870361966616496</v>
+        <v>0.02788297800969179</v>
       </c>
       <c r="D93">
-        <v>0.2198994782490443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2684289933848351</v>
+      </c>
+      <c r="E93">
+        <v>0.07678912994373431</v>
+      </c>
+      <c r="F93">
+        <v>0.00242243235741032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04286570195941274</v>
+        <v>0.1306526206878597</v>
       </c>
       <c r="C94">
-        <v>0.1489458780195519</v>
+        <v>0.02433977701202508</v>
       </c>
       <c r="D94">
-        <v>0.01022654806838401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0429837408620598</v>
+      </c>
+      <c r="E94">
+        <v>-0.05766644334160288</v>
+      </c>
+      <c r="F94">
+        <v>0.03519540105991613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02725055880717223</v>
+        <v>0.1273456958614866</v>
       </c>
       <c r="C95">
-        <v>0.1401929271452748</v>
+        <v>0.003436735513579948</v>
       </c>
       <c r="D95">
-        <v>-0.02238416249667845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09175911027160943</v>
+      </c>
+      <c r="E95">
+        <v>-0.04665808320589148</v>
+      </c>
+      <c r="F95">
+        <v>-0.006512688784041732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9719109729296656</v>
+        <v>0.1045738442917367</v>
       </c>
       <c r="C96">
-        <v>0.2174109830299499</v>
+        <v>-0.9876770878959957</v>
       </c>
       <c r="D96">
-        <v>0.02494457696034461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04848420010731333</v>
+      </c>
+      <c r="E96">
+        <v>-0.05531919442583809</v>
+      </c>
+      <c r="F96">
+        <v>0.04241173785108895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.005193525614956436</v>
+        <v>0.1931624083258923</v>
       </c>
       <c r="C97">
-        <v>0.154863716410042</v>
+        <v>-0.007674297185730681</v>
       </c>
       <c r="D97">
-        <v>0.05611428764046985</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01755844222001967</v>
+      </c>
+      <c r="E97">
+        <v>-0.01835914518054322</v>
+      </c>
+      <c r="F97">
+        <v>-0.09180118937103499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02978014863494793</v>
+        <v>0.204231987267414</v>
       </c>
       <c r="C98">
-        <v>0.2008152511849558</v>
+        <v>0.00677243464705116</v>
       </c>
       <c r="D98">
-        <v>0.01605065434727915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01431742951809611</v>
+      </c>
+      <c r="E98">
+        <v>0.08316681643141774</v>
+      </c>
+      <c r="F98">
+        <v>-0.09386518015742951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.005057025301907404</v>
+        <v>0.05570992476352087</v>
       </c>
       <c r="C99">
-        <v>0.0615516576511362</v>
+        <v>-0.005011403424919039</v>
       </c>
       <c r="D99">
-        <v>0.009133116593997841</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03969895187645711</v>
+      </c>
+      <c r="E99">
+        <v>-0.02296411213178531</v>
+      </c>
+      <c r="F99">
+        <v>0.0016910537581709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004829754816959851</v>
+        <v>0.1249441666282948</v>
       </c>
       <c r="C100">
-        <v>0.1693766575455949</v>
+        <v>-0.05500132228502633</v>
       </c>
       <c r="D100">
-        <v>-0.7628861128939707</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3430758684244805</v>
+      </c>
+      <c r="E100">
+        <v>0.8895772076159734</v>
+      </c>
+      <c r="F100">
+        <v>-0.142838222432177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01305946677427026</v>
+        <v>0.02765262832946773</v>
       </c>
       <c r="C101">
-        <v>0.02720125267416144</v>
+        <v>0.008088727364093605</v>
       </c>
       <c r="D101">
-        <v>0.004901113768653738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0315736178107567</v>
+      </c>
+      <c r="E101">
+        <v>-0.01078489307553854</v>
+      </c>
+      <c r="F101">
+        <v>-0.01200227067981557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
